--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABDE/10/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABDE/10/seed3/result_data_RandomForest.xlsx
@@ -488,7 +488,7 @@
         <v>-12.16</v>
       </c>
       <c r="D3" t="n">
-        <v>-6.999699999999997</v>
+        <v>-6.919399999999992</v>
       </c>
       <c r="E3" t="n">
         <v>17.78</v>
@@ -550,7 +550,7 @@
         <v>-22.82</v>
       </c>
       <c r="B7" t="n">
-        <v>5.246100000000004</v>
+        <v>5.7591</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
@@ -598,7 +598,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-21.839</v>
+        <v>-22.1423</v>
       </c>
       <c r="B10" t="n">
         <v>6.17</v>
@@ -610,7 +610,7 @@
         <v>-8.85</v>
       </c>
       <c r="E10" t="n">
-        <v>16.3922</v>
+        <v>16.48139999999999</v>
       </c>
     </row>
     <row r="11">
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.5487</v>
+        <v>-21.59370000000001</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -678,7 +678,7 @@
         <v>-7.43</v>
       </c>
       <c r="E14" t="n">
-        <v>16.7179</v>
+        <v>16.7944</v>
       </c>
     </row>
     <row r="15">
@@ -686,7 +686,7 @@
         <v>-22.78</v>
       </c>
       <c r="B15" t="n">
-        <v>4.751899999999997</v>
+        <v>4.605899999999995</v>
       </c>
       <c r="C15" t="n">
         <v>-13.12</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.42490000000001</v>
+        <v>-22.40520000000002</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -743,7 +743,7 @@
         <v>-15.14</v>
       </c>
       <c r="D18" t="n">
-        <v>-8.18269999999999</v>
+        <v>-8.16109999999999</v>
       </c>
       <c r="E18" t="n">
         <v>17.03</v>
@@ -760,7 +760,7 @@
         <v>-12.15</v>
       </c>
       <c r="D19" t="n">
-        <v>-8.803699999999994</v>
+        <v>-8.956499999999991</v>
       </c>
       <c r="E19" t="n">
         <v>16.87</v>
@@ -771,7 +771,7 @@
         <v>-19.14</v>
       </c>
       <c r="B20" t="n">
-        <v>9.670899999999991</v>
+        <v>9.799999999999992</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
@@ -896,7 +896,7 @@
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-9.103299999999999</v>
+        <v>-9.169700000000004</v>
       </c>
       <c r="E27" t="n">
         <v>15.34</v>
@@ -924,7 +924,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>5.001400000000001</v>
+        <v>4.891500000000003</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -941,7 +941,7 @@
         <v>-21.31</v>
       </c>
       <c r="B30" t="n">
-        <v>4.504400000000001</v>
+        <v>4.687500000000003</v>
       </c>
       <c r="C30" t="n">
         <v>-10.71</v>
@@ -958,7 +958,7 @@
         <v>-21.76</v>
       </c>
       <c r="B31" t="n">
-        <v>4.8749</v>
+        <v>4.966100000000001</v>
       </c>
       <c r="C31" t="n">
         <v>-11.3</v>
@@ -984,7 +984,7 @@
         <v>-8.69</v>
       </c>
       <c r="E32" t="n">
-        <v>16.60059999999999</v>
+        <v>16.55319999999999</v>
       </c>
     </row>
     <row r="33">
@@ -1035,7 +1035,7 @@
         <v>-9.9</v>
       </c>
       <c r="E35" t="n">
-        <v>16.4916</v>
+        <v>16.361</v>
       </c>
     </row>
     <row r="36">
@@ -1057,7 +1057,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-20.0711</v>
+        <v>-19.984</v>
       </c>
       <c r="B37" t="n">
         <v>9.41</v>
@@ -1111,7 +1111,7 @@
         <v>-19.21</v>
       </c>
       <c r="B40" t="n">
-        <v>9.125899999999998</v>
+        <v>9.098099999999995</v>
       </c>
       <c r="C40" t="n">
         <v>-12.94</v>
@@ -1151,7 +1151,7 @@
         <v>-13.45</v>
       </c>
       <c r="D42" t="n">
-        <v>-8.634099999999997</v>
+        <v>-8.718699999999998</v>
       </c>
       <c r="E42" t="n">
         <v>16.31</v>
@@ -1171,7 +1171,7 @@
         <v>-6.95</v>
       </c>
       <c r="E43" t="n">
-        <v>17.28290000000001</v>
+        <v>17.24</v>
       </c>
     </row>
     <row r="44">
@@ -1185,7 +1185,7 @@
         <v>-10.47</v>
       </c>
       <c r="D44" t="n">
-        <v>-7.978299999999997</v>
+        <v>-7.761399999999997</v>
       </c>
       <c r="E44" t="n">
         <v>16.52</v>
@@ -1236,7 +1236,7 @@
         <v>-11.84</v>
       </c>
       <c r="D47" t="n">
-        <v>-7.638999999999999</v>
+        <v>-7.5483</v>
       </c>
       <c r="E47" t="n">
         <v>17.05</v>
@@ -1273,7 +1273,7 @@
         <v>-9.210000000000001</v>
       </c>
       <c r="E49" t="n">
-        <v>15.52459999999999</v>
+        <v>15.48219999999999</v>
       </c>
     </row>
     <row r="50">
@@ -1363,7 +1363,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.4715</v>
+        <v>-22.424</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1392,7 +1392,7 @@
         <v>-8.92</v>
       </c>
       <c r="E56" t="n">
-        <v>16.6706</v>
+        <v>16.61160000000001</v>
       </c>
     </row>
     <row r="57">
@@ -1423,7 +1423,7 @@
         <v>-15.6</v>
       </c>
       <c r="D58" t="n">
-        <v>-8.248099999999994</v>
+        <v>-8.27249999999999</v>
       </c>
       <c r="E58" t="n">
         <v>16.91</v>
@@ -1584,10 +1584,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-21.5319</v>
+        <v>-21.5466</v>
       </c>
       <c r="B68" t="n">
-        <v>4.779400000000003</v>
+        <v>4.712300000000002</v>
       </c>
       <c r="C68" t="n">
         <v>-9.98</v>
@@ -1613,7 +1613,7 @@
         <v>-6.88</v>
       </c>
       <c r="E69" t="n">
-        <v>17.34580000000001</v>
+        <v>17.39860000000002</v>
       </c>
     </row>
     <row r="70">
@@ -1678,7 +1678,7 @@
         <v>-15.02</v>
       </c>
       <c r="D73" t="n">
-        <v>-7.807799999999999</v>
+        <v>-7.911699999999994</v>
       </c>
       <c r="E73" t="n">
         <v>16.21</v>
@@ -1723,7 +1723,7 @@
         <v>-20.94</v>
       </c>
       <c r="B76" t="n">
-        <v>5.694799999999999</v>
+        <v>5.846799999999997</v>
       </c>
       <c r="C76" t="n">
         <v>-15.06</v>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-20.58069999999999</v>
+        <v>-20.59979999999999</v>
       </c>
       <c r="B77" t="n">
         <v>10.09</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-19.87459999999997</v>
+        <v>-20.01529999999998</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1817,7 +1817,7 @@
         <v>-8.390000000000001</v>
       </c>
       <c r="E81" t="n">
-        <v>16.5778</v>
+        <v>16.52219999999999</v>
       </c>
     </row>
     <row r="82">
@@ -1910,7 +1910,7 @@
         <v>-23.05</v>
       </c>
       <c r="B87" t="n">
-        <v>5.395699999999998</v>
+        <v>4.990199999999999</v>
       </c>
       <c r="C87" t="n">
         <v>-15.19</v>
@@ -1927,7 +1927,7 @@
         <v>-22.69</v>
       </c>
       <c r="B88" t="n">
-        <v>4.805599999999998</v>
+        <v>4.695099999999999</v>
       </c>
       <c r="C88" t="n">
         <v>-14.65</v>
@@ -2004,7 +2004,7 @@
         <v>-5.32</v>
       </c>
       <c r="E92" t="n">
-        <v>18.35460000000002</v>
+        <v>18.33980000000002</v>
       </c>
     </row>
     <row r="93">
@@ -2052,7 +2052,7 @@
         <v>-10.47</v>
       </c>
       <c r="D95" t="n">
-        <v>-8.312700000000001</v>
+        <v>-7.994</v>
       </c>
       <c r="E95" t="n">
         <v>16.44</v>
@@ -2063,7 +2063,7 @@
         <v>-20.86</v>
       </c>
       <c r="B96" t="n">
-        <v>5.498900000000003</v>
+        <v>4.896200000000004</v>
       </c>
       <c r="C96" t="n">
         <v>-10.59</v>
@@ -2097,7 +2097,7 @@
         <v>-21.08</v>
       </c>
       <c r="B98" t="n">
-        <v>5.877200000000001</v>
+        <v>5.841299999999998</v>
       </c>
       <c r="C98" t="n">
         <v>-13.95</v>
@@ -2148,13 +2148,13 @@
         <v>-19.85</v>
       </c>
       <c r="B101" t="n">
-        <v>8.851699999999999</v>
+        <v>9.174199999999997</v>
       </c>
       <c r="C101" t="n">
         <v>-11.07</v>
       </c>
       <c r="D101" t="n">
-        <v>-7.975099999999998</v>
+        <v>-7.743100000000001</v>
       </c>
       <c r="E101" t="n">
         <v>16.32</v>
@@ -2165,7 +2165,7 @@
         <v>-20.36</v>
       </c>
       <c r="B102" t="n">
-        <v>9.023800000000005</v>
+        <v>8.696000000000005</v>
       </c>
       <c r="C102" t="n">
         <v>-12</v>
